--- a/rrhh_14/hr_campos_parametrizacion/data/hr.payroll.indicadores.economicos.xlsx
+++ b/rrhh_14/hr_campos_parametrizacion/data/hr.payroll.indicadores.economicos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Name</t>
   </si>
@@ -53,6 +53,30 @@
   </si>
   <si>
     <t>DUT</t>
+  </si>
+  <si>
+    <t>% Retención Ince Patrono (%)</t>
+  </si>
+  <si>
+    <t>INP</t>
+  </si>
+  <si>
+    <t>% Retención Ince  Empleado (%)</t>
+  </si>
+  <si>
+    <t>INE</t>
+  </si>
+  <si>
+    <t>% Retención FAOV Patrono (%)</t>
+  </si>
+  <si>
+    <t>FAOVP</t>
+  </si>
+  <si>
+    <t>% Retención FAOV Empleado (%)</t>
+  </si>
+  <si>
+    <t>FAOVE</t>
   </si>
 </sst>
 </file>
@@ -396,7 +420,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -421,7 +445,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>7000000</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -454,7 +478,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -465,10 +489,54 @@
         <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/rrhh_14/hr_campos_parametrizacion/data/hr.payroll.indicadores.economicos.xlsx
+++ b/rrhh_14/hr_campos_parametrizacion/data/hr.payroll.indicadores.economicos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -53,30 +53,6 @@
   </si>
   <si>
     <t>DUT</t>
-  </si>
-  <si>
-    <t>% Retención Ince Patrono (%)</t>
-  </si>
-  <si>
-    <t>INP</t>
-  </si>
-  <si>
-    <t>% Retención Ince  Empleado (%)</t>
-  </si>
-  <si>
-    <t>INE</t>
-  </si>
-  <si>
-    <t>% Retención FAOV Patrono (%)</t>
-  </si>
-  <si>
-    <t>FAOVP</t>
-  </si>
-  <si>
-    <t>% Retención FAOV Empleado (%)</t>
-  </si>
-  <si>
-    <t>FAOVE</t>
   </si>
 </sst>
 </file>
@@ -420,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -445,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>130</v>
+        <v>7000000</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -478,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>1000000</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -489,54 +465,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="2">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
